--- a/Docs/02_基本設計/データ一覧.xlsx
+++ b/Docs/02_基本設計/データ一覧.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="データ一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -57,19 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>買い物情報が複数</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>モノジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フクスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1件データ</t>
     <rPh sb="1" eb="2">
       <t>ケン</t>
@@ -122,26 +107,119 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID、品名、価格、日付、時間、店名、税率</t>
+    <t>口座情報</t>
+    <rPh sb="0" eb="4">
+      <t>コウザジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローン情報</t>
     <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID、ローン名、残額</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID、レシート情報ID、品名、価格、税率</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ヒンメイ</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="15" eb="17">
       <t>カカク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テンメイ</t>
     </rPh>
     <rPh sb="18" eb="20">
       <t>ゼイリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い物情報が複数、ID、日付、時間、店名</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モノジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID、口座名、銀行名、残額</t>
+    <rPh sb="3" eb="5">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ名（英名）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shopping</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>loan</t>
   </si>
 </sst>
 </file>
@@ -164,21 +242,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -208,55 +280,13 @@
     </border>
     <border>
       <left/>
-      <right style="double">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -298,47 +328,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -370,41 +359,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -414,23 +373,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,24 +401,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -470,6 +423,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="データ一覧" displayName="データ一覧" ref="B4:F9">
+  <autoFilter ref="B4:F9"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="No" totalsRowLabel="集計"/>
+    <tableColumn id="2" name="データ名"/>
+    <tableColumn id="5" name="データ名（英名）"/>
+    <tableColumn id="3" name="データ種類"/>
+    <tableColumn id="4" name="備考" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,363 +726,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.875" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="4" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="3"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
-      <c r="B5" s="9">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="20">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="20">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="20">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="20">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1124,31 +1160,8 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>